--- a/data/paradox/Paradox-Players.xlsx
+++ b/data/paradox/Paradox-Players.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Library/Mobile Documents/com~apple~CloudDocs/CocStats/data/paradox/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053988B-5F8F-1949-9BC5-8BC73F16FA89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35440" yWindow="9000" windowWidth="14540" windowHeight="16580"/>
+    <workbookView xWindow="64360" yWindow="8100" windowWidth="13820" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,12 +25,15 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Player Name</t>
   </si>
@@ -225,19 +231,66 @@
   </si>
   <si>
     <t>G0899089</t>
+  </si>
+  <si>
+    <t>Hurrican Heidi</t>
+  </si>
+  <si>
+    <t>Chaz</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>R22GYJCC</t>
+  </si>
+  <si>
+    <t>20RGCJCR</t>
+  </si>
+  <si>
+    <t>Q2C9JRQP</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>lakasha</t>
+  </si>
+  <si>
+    <t>8CVJVV0U2</t>
+  </si>
+  <si>
+    <t>C8LRG2UL</t>
+  </si>
+  <si>
+    <t>Dragon-Fly</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Jr. Blackhawk</t>
+  </si>
+  <si>
+    <t>GPUP2J00</t>
+  </si>
+  <si>
+    <t>JUY29GYY</t>
+  </si>
+  <si>
+    <t>GQ0G0RJ9R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -575,27 +628,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -611,7 +664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -619,7 +672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -627,7 +680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -635,7 +688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -643,7 +696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -651,7 +704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -659,7 +712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -667,7 +720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -675,193 +728,257 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
-    <sortCondition ref="A2:A26"/>
+  <sortState ref="A2:B36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/paradox/Paradox-Players.xlsx
+++ b/data/paradox/Paradox-Players.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Library/Mobile Documents/com~apple~CloudDocs/CocStats/data/paradox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Documents/Development/PublicSource/clash-stats/data/paradox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053988B-5F8F-1949-9BC5-8BC73F16FA89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8828FB-B397-4641-94BC-E1040C826624}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64360" yWindow="8100" windowWidth="13820" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="9960" windowWidth="13820" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Player Name</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>GQ0G0RJ9R</t>
+  </si>
+  <si>
+    <t>Sjcsan</t>
+  </si>
+  <si>
+    <t>Christ</t>
+  </si>
+  <si>
+    <t>2UV9CCCG</t>
+  </si>
+  <si>
+    <t>LYUR99QL</t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -434,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -636,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,6 +986,22 @@
       </c>
       <c r="B41" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/paradox/Paradox-Players.xlsx
+++ b/data/paradox/Paradox-Players.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Documents/Development/PublicSource/clash-stats/data/paradox/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8828FB-B397-4641-94BC-E1040C826624}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="9960" windowWidth="13820" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="9960" windowWidth="13820" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,15 +22,12 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Player Name</t>
   </si>
@@ -291,12 +285,30 @@
   </si>
   <si>
     <t>LYUR99QL</t>
+  </si>
+  <si>
+    <t>WillX78</t>
+  </si>
+  <si>
+    <t>GGG0LL2J</t>
+  </si>
+  <si>
+    <t>Pval the Great</t>
+  </si>
+  <si>
+    <t>GGLJ2RCY</t>
+  </si>
+  <si>
+    <t>The Forsaken</t>
+  </si>
+  <si>
+    <t>CYV8LYCC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -394,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -446,7 +458,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -640,27 +652,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -676,7 +688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -684,7 +696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -692,7 +704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -700,7 +712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -708,7 +720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -724,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -732,7 +744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -740,7 +752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -748,7 +760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,7 +768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -764,7 +776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -772,7 +784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -780,7 +792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -788,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -796,7 +808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -804,7 +816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -812,7 +824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -820,7 +832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -828,7 +840,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -836,7 +848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -844,7 +856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -852,7 +864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -860,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -868,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -876,7 +888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -884,7 +896,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -892,7 +904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -900,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -908,7 +920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -916,7 +928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -924,7 +936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -932,7 +944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -940,7 +952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -948,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -956,7 +968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -964,7 +976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -972,7 +984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -980,7 +992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -996,12 +1008,36 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/paradox/Paradox-Players.xlsx
+++ b/data/paradox/Paradox-Players.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Player Name</t>
   </si>
@@ -303,6 +303,36 @@
   </si>
   <si>
     <t>CYV8LYCC</t>
+  </si>
+  <si>
+    <t>Xtm</t>
+  </si>
+  <si>
+    <t>GPCQRC80</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>YV9VQ22J</t>
+  </si>
+  <si>
+    <t>Glean R</t>
+  </si>
+  <si>
+    <t>QUVUUYOL</t>
+  </si>
+  <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t>GG9GCVP</t>
+  </si>
+  <si>
+    <t>Mclane</t>
+  </si>
+  <si>
+    <t>8GJ29GOG</t>
   </si>
 </sst>
 </file>
@@ -652,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1038,6 +1068,46 @@
       </c>
       <c r="B46" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
